--- a/biology/Histoire de la zoologie et de la botanique/Roger_de_Vilmorin/Roger_de_Vilmorin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Roger_de_Vilmorin/Roger_de_Vilmorin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Marie Vincent Philippe Lévêque de Vilmorin, né le 12 septembre 1905 à Paris et mort le 20 juillet 1980 à Verrières-le-Buisson , est un horticulteur et un généticien français.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Roger de Vilmorin est le fils naturel de Mélanie de Gaufridy de Dortan (1876-1937) et du roi Alphonse XIII d'Espagne (dont c'est l'un des cinq enfants naturels)[1]. Il a toutefois été reconnu par l'époux de sa mère, Philippe de Vilmorin[2],[3].
-Carrière scientifique
-Il dirige les services scientifiques de la société Vilmorin-Andrieux de 1926 à 1964. Il devient membre de l’Académie d’agriculture en 1946 et dirige l’institution en 1961. Il est président de la Société botanique de France en 1953-1954 et membre du Comité international de nomenclature botanique de 1954 à 1972.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger de Vilmorin est le fils naturel de Mélanie de Gaufridy de Dortan (1876-1937) et du roi Alphonse XIII d'Espagne (dont c'est l'un des cinq enfants naturels). Il a toutefois été reconnu par l'époux de sa mère, Philippe de Vilmorin,.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il dirige les services scientifiques de la société Vilmorin-Andrieux de 1926 à 1964. Il devient membre de l’Académie d’agriculture en 1946 et dirige l’institution en 1961. Il est président de la Société botanique de France en 1953-1954 et membre du Comité international de nomenclature botanique de 1954 à 1972.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roger_de_Vilmorin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roger_de_Vilmorin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990, Roger de Vilmorin et son frère Olivier de Vilmorin ont été élevés au rang de Juste parmi les nations par le Comité pour Yad Vashem pour leurs actions durant la Seconde Guerre mondiale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, Roger de Vilmorin et son frère Olivier de Vilmorin ont été élevés au rang de Juste parmi les nations par le Comité pour Yad Vashem pour leurs actions durant la Seconde Guerre mondiale.
 Roger de Vilmorin était Officier dans l'ordre des Palmes Académiques et dans l'ordre de la Légion d'Honneur ; il était Commandeur dans l'ordre du Mérite agricole ; et chevalier de l'ordre national du Mérite.
 </t>
         </is>
